--- a/1차 프로젝트_웹_API_0902-0926/디비정의서.xlsx
+++ b/1차 프로젝트_웹_API_0902-0926/디비정의서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ejrgu\OneDrive\바탕 화면\git hub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cakd7\1차 프로젝트_웹_API_0902-0926\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F706ADDB-1541-469B-A77C-77F7726DB94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2959C1-CCA2-4DEB-AB59-D027BF85966C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B1D45619-C9A6-4099-9016-66CC610452B2}"/>
+    <workbookView xWindow="8100" yWindow="6075" windowWidth="20610" windowHeight="11385" activeTab="2" xr2:uid="{B1D45619-C9A6-4099-9016-66CC610452B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1320,8 +1320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CD0EC47-9E3C-4043-9BA2-7425F0C731EA}">
   <dimension ref="B2:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:H9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1499,9 +1499,6 @@
       <c r="H9" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
@@ -1521,7 +1518,9 @@
       <c r="H10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
@@ -2107,6 +2106,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="G27:H27"/>
@@ -2117,12 +2122,6 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="G18:H18"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1차 프로젝트_웹_API_0902-0926/디비정의서.xlsx
+++ b/1차 프로젝트_웹_API_0902-0926/디비정의서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cakd7\1차 프로젝트_웹_API_0902-0926\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ejrgu\OneDrive\바탕 화면\git hub\cakd7\1차 프로젝트_웹_API_0902-0926\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2959C1-CCA2-4DEB-AB59-D027BF85966C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{18596C58-E895-414F-9744-0D7C4F148C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="6075" windowWidth="20610" windowHeight="11385" activeTab="2" xr2:uid="{B1D45619-C9A6-4099-9016-66CC610452B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B1D45619-C9A6-4099-9016-66CC610452B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="193">
   <si>
     <t>테이블ID</t>
   </si>
@@ -312,10 +312,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sensor 테이블에 수정횟수 컬럼 추가해주기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>비고 : 센서ID 컬럼 제거</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -324,18 +320,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>센서 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fertilization_num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정 횟수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>비고 : event에서 센서 제거시 컬럼 제거해줘야함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -441,6 +425,331 @@
   </si>
   <si>
     <t>센서 테이블 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>칼럼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>명</t>
+    </r>
+  </si>
+  <si>
+    <t>전송 가능 여부</t>
+  </si>
+  <si>
+    <t>값의 범위</t>
+  </si>
+  <si>
+    <t>값 형태</t>
+  </si>
+  <si>
+    <t>데이터 의미</t>
+  </si>
+  <si>
+    <t>_id</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>acc_x</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>0 ~ 9999</t>
+  </si>
+  <si>
+    <t>X 축에 대한 움직임</t>
+  </si>
+  <si>
+    <t>acc_y</t>
+  </si>
+  <si>
+    <t>Y 축에 대한 움직임</t>
+  </si>
+  <si>
+    <t>acc_z</t>
+  </si>
+  <si>
+    <t>Z 축에 대한 움직임</t>
+  </si>
+  <si>
+    <t>AcquireDateTime</t>
+  </si>
+  <si>
+    <t>bettery</t>
+  </si>
+  <si>
+    <t>0.0 ~ 9.9</t>
+  </si>
+  <si>
+    <t>베터리 전압 값</t>
+  </si>
+  <si>
+    <t>del_yn</t>
+  </si>
+  <si>
+    <t>hPa</t>
+  </si>
+  <si>
+    <t>기압</t>
+  </si>
+  <si>
+    <t>MacAddr</t>
+  </si>
+  <si>
+    <t>XX:XX:XX:XX:XX</t>
+  </si>
+  <si>
+    <t>16진수 문자</t>
+  </si>
+  <si>
+    <t>push_id</t>
+  </si>
+  <si>
+    <t>RH</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>습도 (현재는 사용 안함)</t>
+  </si>
+  <si>
+    <t>rssi</t>
+  </si>
+  <si>
+    <t>0 ~ -999</t>
+  </si>
+  <si>
+    <t>sensor_ver</t>
+  </si>
+  <si>
+    <t>A ~ Z</t>
+  </si>
+  <si>
+    <t>문자</t>
+  </si>
+  <si>
+    <t>센서의 종류 구분 (OOShell, WWShell…)</t>
+  </si>
+  <si>
+    <t>sensorID</t>
+  </si>
+  <si>
+    <t>0000 ~ FFFF</t>
+  </si>
+  <si>
+    <t>temp</t>
+  </si>
+  <si>
+    <t>-40 ~ 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">온도 </t>
+  </si>
+  <si>
+    <t>temp_ir</t>
+  </si>
+  <si>
+    <t>비접촉 온도 센서의 값 (현재는 사용 안함)</t>
+  </si>
+  <si>
+    <t>vector</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>RF 모듈의 고유 번호(ip주소같은거)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>안녕하세요. 딕스비전 채지우 책임입니다.</t>
+  </si>
+  <si>
+    <t>게이트웨이에서 전송하는 데이터 중복을 회피하기 위해 PacketNum 를 말씀드렸는데 서버로 전송하는 JSON 구조에는 포함이 되어있지 않습니다.</t>
+  </si>
+  <si>
+    <t>JSON 구조에 PacketNum 데이터를 추가하여야 할 것 같습니다.</t>
+  </si>
+  <si>
+    <t>[변경될 JSON 구조]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        body = {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "_id": id,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "msg_ver": data["msg_ver"],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "sensorID": data["sensorID"],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "battery": str(float(data["bettery"])/10),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "temp": str(float(data["temp"])/10),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "hPa": data["hPa"],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "acc_x": data["acc_x"],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "acc_y": data["acc_y"],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "acc_z": data["acc_z"],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "vector": data["vector"],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "rssi": data["rssi"],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "time": time,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "sensor_ver": data["sensor_ver"],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "macAddr": data["MacAddr"],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            "packetnum": data["PacketNum"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        }</t>
+  </si>
+  <si>
+    <t>“macAddr”, “packetnum” 두 데이터가 동일하면 같은 데이터라 판단하면 될거같습니다.</t>
+  </si>
+  <si>
+    <t>“packetnum” – 0 ~ 255 데이터를 가집니다. ( 255 다음은 다시 0)</t>
+  </si>
+  <si>
+    <t>이상입니다.</t>
+  </si>
+  <si>
+    <t>센서가 보낸 이벤트의 고유 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>센서의 번호(시리얼 넘버)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF 수신 감도(센서 기계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg_ver</t>
+  </si>
+  <si>
+    <t>macAddr</t>
+  </si>
+  <si>
+    <t>battery</t>
+  </si>
+  <si>
+    <t>hpa</t>
+  </si>
+  <si>
+    <t>packetnum</t>
+  </si>
+  <si>
+    <t>kr_time</t>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소의 좌우 움직임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소의 상하 움직임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소의 위아래(높이)움직임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>움직임에 대한 벡터 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>움직임수치의 종합값(움직임에 대한 벡터 값)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>센서 베터리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소의 온도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날씨 기압</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>utc시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>센서기계 시리얼 넘버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>센서버전 ( V,N)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>센서 기계에 대한 정보(의미없음)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -448,7 +757,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -478,6 +787,19 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="4">
@@ -577,7 +899,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -625,6 +947,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1318,10 +1649,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CD0EC47-9E3C-4043-9BA2-7425F0C731EA}">
-  <dimension ref="B2:I47"/>
+  <dimension ref="B2:N128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1330,8 +1661,10 @@
     <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.875" customWidth="1"/>
     <col min="7" max="7" width="18.625" customWidth="1"/>
-    <col min="8" max="8" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="60.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="39.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
@@ -1393,7 +1726,7 @@
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I4" s="1"/>
     </row>
@@ -1413,7 +1746,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="6"/>
       <c r="H5" s="8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>52</v>
@@ -1424,7 +1757,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>33</v>
@@ -1435,7 +1768,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="6"/>
       <c r="H6" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I6" s="1"/>
     </row>
@@ -1444,7 +1777,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>33</v>
@@ -1455,7 +1788,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="6"/>
       <c r="H7" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I7" s="1"/>
     </row>
@@ -1464,7 +1797,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>33</v>
@@ -1475,7 +1808,7 @@
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I8" s="1"/>
     </row>
@@ -1497,7 +1830,7 @@
         <v>53</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
@@ -1622,7 +1955,7 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="I16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
@@ -1773,7 +2106,7 @@
         <v>64</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
@@ -1789,7 +2122,7 @@
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H27" s="12"/>
     </row>
@@ -1820,8 +2153,8 @@
       <c r="B29" s="3">
         <v>1</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>27</v>
+      <c r="C29" s="18" t="s">
+        <v>103</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>33</v>
@@ -1834,296 +2167,904 @@
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3" t="s">
-        <v>72</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="3">
         <v>2</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>73</v>
+      <c r="C30" s="18" t="s">
+        <v>129</v>
       </c>
       <c r="D30" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="3">
+        <v>3</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" s="3">
-        <v>0</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I30" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="15"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="3">
+        <v>4</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="3">
+        <v>5</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="11"/>
+      <c r="B34" s="3">
+        <v>6</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>174</v>
+      </c>
       <c r="D34" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="F34" s="11"/>
-      <c r="G34" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="H34" s="12"/>
+        <v>178</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G35" s="4" t="s">
+      <c r="B35" s="3">
         <v>7</v>
       </c>
-      <c r="H35" s="4" t="s">
-        <v>8</v>
+      <c r="C35" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="3">
-        <v>1</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>79</v>
+        <v>8</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>175</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="3">
-        <v>2</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>84</v>
+        <v>9</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>105</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E37" s="3"/>
-      <c r="F37" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3" t="s">
-        <v>83</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="3">
-        <v>3</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>78</v>
+        <v>10</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>109</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="E38" s="3"/>
-      <c r="F38" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3" t="s">
-        <v>76</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="3">
-        <v>4</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>86</v>
+        <v>11</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>111</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="E39" s="3"/>
-      <c r="F39" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3" t="s">
-        <v>85</v>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B40" s="3">
+        <v>12</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B41" s="3">
+        <v>13</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B42" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C42" s="11"/>
+      <c r="B42" s="3">
+        <v>14</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>142</v>
+      </c>
       <c r="D42" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="F42" s="11"/>
-      <c r="G42" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="H42" s="12"/>
+        <v>58</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B43" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>8</v>
+      <c r="B43" s="3">
+        <v>15</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="3">
-        <v>1</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>89</v>
+        <v>16</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>177</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>20</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3" t="s">
-        <v>90</v>
+        <v>187</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B45" s="3">
+      <c r="B45" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="15"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B48" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="11"/>
+      <c r="D48" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F48" s="11"/>
+      <c r="G48" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H48" s="12"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B49" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D45" s="3" t="s">
+      <c r="C49" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J49" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="K49" t="s">
+        <v>99</v>
+      </c>
+      <c r="L49" t="s">
+        <v>100</v>
+      </c>
+      <c r="M49" t="s">
+        <v>101</v>
+      </c>
+      <c r="N49" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B50" s="3">
+        <v>1</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3" t="s">
+      <c r="E50" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J50" t="s">
+        <v>103</v>
+      </c>
+      <c r="K50" t="s">
+        <v>104</v>
+      </c>
+      <c r="N50" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B51" s="3">
+        <v>2</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J51" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="K51" t="s">
+        <v>106</v>
+      </c>
+      <c r="L51" t="s">
+        <v>107</v>
+      </c>
+      <c r="N51" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B52" s="3">
+        <v>3</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J52" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="K52" t="s">
+        <v>106</v>
+      </c>
+      <c r="L52" t="s">
+        <v>107</v>
+      </c>
+      <c r="N52" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B53" s="3">
+        <v>4</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J53" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="K53" t="s">
+        <v>106</v>
+      </c>
+      <c r="L53" t="s">
+        <v>107</v>
+      </c>
+      <c r="N53" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="J54" t="s">
+        <v>113</v>
+      </c>
+      <c r="K54" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="J55" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="K55" t="s">
+        <v>106</v>
+      </c>
+      <c r="L55" t="s">
+        <v>115</v>
+      </c>
+      <c r="N55" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B56" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" s="11"/>
+      <c r="D56" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F56" s="11"/>
+      <c r="G56" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="H56" s="12"/>
+      <c r="J56" t="s">
+        <v>117</v>
+      </c>
+      <c r="K56" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B57" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J57" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="K57" t="s">
+        <v>106</v>
+      </c>
+      <c r="L57" t="s">
+        <v>107</v>
+      </c>
+      <c r="N57" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B58" s="3">
+        <v>1</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J58" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="K58" t="s">
+        <v>106</v>
+      </c>
+      <c r="L58" t="s">
+        <v>121</v>
+      </c>
+      <c r="M58" t="s">
+        <v>122</v>
+      </c>
+      <c r="N58" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B59" s="3">
+        <v>2</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J59" t="s">
+        <v>123</v>
+      </c>
+      <c r="K59" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B60" s="3">
+        <v>3</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J60" t="s">
+        <v>124</v>
+      </c>
+      <c r="K60" t="s">
+        <v>125</v>
+      </c>
+      <c r="N60" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B61" s="3">
+        <v>4</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B46" s="3">
-        <v>3</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D46" s="3" t="s">
+      <c r="D61" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B47" s="3">
-        <v>4</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3" t="s">
+      <c r="E61" s="3"/>
+      <c r="F61" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3" t="s">
-        <v>93</v>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J61" t="s">
+        <v>127</v>
+      </c>
+      <c r="K61" t="s">
+        <v>106</v>
+      </c>
+      <c r="L61" t="s">
+        <v>128</v>
+      </c>
+      <c r="N61" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="J62" t="s">
+        <v>129</v>
+      </c>
+      <c r="K62" t="s">
+        <v>106</v>
+      </c>
+      <c r="L62" t="s">
+        <v>130</v>
+      </c>
+      <c r="M62" t="s">
+        <v>131</v>
+      </c>
+      <c r="N62" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="J63" t="s">
+        <v>133</v>
+      </c>
+      <c r="K63" t="s">
+        <v>106</v>
+      </c>
+      <c r="L63" t="s">
+        <v>134</v>
+      </c>
+      <c r="M63" t="s">
+        <v>122</v>
+      </c>
+      <c r="N63" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="J64" t="s">
+        <v>135</v>
+      </c>
+      <c r="K64" t="s">
+        <v>106</v>
+      </c>
+      <c r="L64" t="s">
+        <v>136</v>
+      </c>
+      <c r="N64" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="65" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J65" t="s">
+        <v>138</v>
+      </c>
+      <c r="K65" t="s">
+        <v>125</v>
+      </c>
+      <c r="N65" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="66" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J66" t="s">
+        <v>140</v>
+      </c>
+      <c r="K66" t="s">
+        <v>106</v>
+      </c>
+      <c r="L66" t="s">
+        <v>107</v>
+      </c>
+      <c r="N66" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="67" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J67" t="s">
+        <v>141</v>
+      </c>
+      <c r="K67" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J68" t="s">
+        <v>142</v>
+      </c>
+      <c r="K68" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J72" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="74" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J74" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="76" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J76" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="78" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J78" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="80" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="J80" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="82" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J82" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="84" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J84" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="86" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J86" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="88" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J88" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="90" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J90" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="92" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J92" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="94" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J94" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="96" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J96" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="98" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J98" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="100" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J100" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="102" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J102" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="104" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J104" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="106" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J106" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="108" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J108" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="110" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J110" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="112" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J112" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="114" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J114" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="116" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J116" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="118" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J118" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="120" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J120" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="122" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J122" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="124" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J124" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="126" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J126" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="128" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J128" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="G27:H27"/>
-    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B45:H45"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G56:H56"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
 </worksheet>
 </file>